--- a/questions/05-2023/05-2023.xlsx
+++ b/questions/05-2023/05-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>id_cauhoi</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Chào cụ</t>
+  </si>
+  <si>
+    <t>2023-05-03 17:32:14</t>
+  </si>
+  <si>
+    <t>Lê Đức Thắng</t>
+  </si>
+  <si>
+    <t>Daodan2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Alo Alo</t>
+  </si>
+  <si>
+    <t>2023-05-03 17:32:32</t>
+  </si>
+  <si>
+    <t>Chào bạn</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I4" sqref="I4"/>
@@ -474,6 +492,52 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
     </row>
